--- a/makeGaussian.xlsx
+++ b/makeGaussian.xlsx
@@ -96,6 +96,2782 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.8997251447687271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8975724819456334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8911291180896206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8804387615726716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8655737107410497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8466340396181415</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8237464759248199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7970629890142533</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7667591097301629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7330320081689699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6960983587816427</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6561920251276123</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6135615988418455</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.568467828963104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5211809786778678</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4719781467574593</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4211405905178409</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3689510860393781</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3156913596880988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2616396227334574</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2070682381235598</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1522415453292543</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.097413865681877</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0428277068887586</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98871218150095486</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.93528165011429298</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.8827345960909202</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83125273467333394</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7810003555999695</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.73212389478724882</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.68475172737556311</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.63899417149470894</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.59494368952653265</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.55267527145741291</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.51224698313875705</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.47370066091785079</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.43706273316241934</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.40234514866943977</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.36954639180327642</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.33865256442425462</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30963851521458691</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.28246899784764445</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.25709984053899076</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.23347911082121831</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.21154826085620138</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.19124324019477679</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.17249556457300708</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.15523333105600143</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.13938217156743224</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.12486613854147374</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.11160851807381066</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.9532567503762701E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.8562175808973742E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.8622446520490788E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.9640204056819088E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.1544425422277664E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.4266600113321108E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.7741021825659265E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.1905016157530332E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.6699108965682237E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.2067140358239259E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.7956329512303851E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.4317295594999948E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.1104040056847656E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.827389546864212E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5787445900418313E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3608423606548141E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.1703586497102958E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.004258055426149E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.5977910048888415E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.3441856966243047E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.2591537540093011E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.3223422213421138E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.5154930368999577E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.8222823346066364E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.2281637387270323E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.7202170082627937E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.2870031029562847E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.918426483843578E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6056052290001992E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3407493396765441E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.1170474330169352E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.2856186410834917E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.7013219093532775E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.3728678935659705E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.2616233968451082E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.3343083992442271E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.5623375123100976E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.9212284666438966E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.39007312916766E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9510664444019444E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5890886855065862E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.2913364695122959E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.0469981218597746E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.4696915434381785E-5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.8360383563704022E-5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.5049907407015393E-5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.4230708907724652E-5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.545736128871424E-5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.8359863117987185E-5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.2631693526306676E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88C3-419D-A7BA-919C0CB827E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.11160851807381066</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12486613854147374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13938217156743224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15523333105600143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17249556457300708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19124324019477679</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21154826085620138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23347911082121831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25709984053899076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28246899784764445</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30963851521458691</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33865256442425462</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36954639180327642</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40234514866943977</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43706273316241934</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.47370066091785101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51224698313875727</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55267527145741313</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59494368952653265</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.63899417149470894</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.68475172737556311</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.7321238947872486</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.7810003555999695</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.83125273467333394</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.8827345960909202</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.93528165011429298</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98871218150095486</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0428277068887588</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.097413865681877</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.152241545329254</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2070682381235598</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2616396227334574</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3156913596880988</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3689510860393781</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.4211405905178411</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4719781467574593</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5211809786778678</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.568467828963104</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6135615988418455</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6561920251276123</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6960983587816427</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7330320081689699</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7667591097301627</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7970629890142533</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8237464759248199</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8466340396181415</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8655737107410497</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.8804387615726716</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.8911291180896206</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8975724819456334</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8997251447687271</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8975724819456334</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.8911291180896206</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.8804387615726716</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.8655737107410497</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8466340396181411</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.8237464759248199</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7970629890142533</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7667591097301629</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7330320081689699</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6960983587816427</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6561920251276123</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6135615988418455</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.568467828963104</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5211809786778678</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.4719781467574591</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.4211405905178409</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.3689510860393777</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3156913596880986</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.261639622733457</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2070682381235593</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.1522415453292543</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.097413865681877</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0428277068887588</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.98871218150095486</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.93528165011429298</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.8827345960909202</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.83125273467333394</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.7810003555999695</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.7321238947872486</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.68475172737556278</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.63899417149470861</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.59494368952653243</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.5526752714574128</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.51224698313875727</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.47370066091785101</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.43706273316241934</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.40234514866943977</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.36954639180327642</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.33865256442425462</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.30963851521458691</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.28246899784764445</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.25709984053899049</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.23347911082121808</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.21154826085620115</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.19124324019477662</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.17249556457300722</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.15523333105600143</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.13938217156743224</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.12486613854147374</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.11160851807381066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88C3-419D-A7BA-919C0CB827E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>2.2631693526306676E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8359863117987185E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.545736128871424E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4230708907724652E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5049907407015393E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8360383563704266E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4696915434381785E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0469981218597746E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2913364695122959E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5890886855065862E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9510664444019444E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.39007312916766E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9212284666438966E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5623375123100976E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3343083992442271E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2616233968451082E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.3728678935659705E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.7013219093532916E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.2856186410834917E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1170474330169352E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3407493396765441E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6056052290001992E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.918426483843578E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2870031029562847E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.7202170082627937E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.2281637387270323E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.8222823346066364E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.5154930368999577E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.3223422213421138E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.2591537540093011E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.3441856966243238E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.5977910048888554E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0042580554261509E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1703586497102979E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3608423606548167E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5787445900418341E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.827389546864212E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.1104040056847656E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.4317295594999948E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7956329512303851E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.2067140358239259E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.6699108965682237E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.1905016157530305E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.7741021825659265E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.4266600113321108E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.1544425422277664E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.9640204056819088E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.8622446520490788E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.8562175808973742E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.9532567503762701E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.11160851807381066</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.12486613854147374</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.13938217156743224</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.15523333105600143</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.17249556457300722</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.19124324019477679</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.21154826085620154</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.23347911082121831</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.25709984053899049</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.28246899784764445</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.30963851521458691</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.33865256442425462</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.36954639180327642</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.40234514866943977</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.43706273316241934</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.47370066091785101</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.51224698313875727</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.55267527145741313</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.59494368952653287</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.63899417149470905</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.68475172737556333</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.7321238947872486</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.7810003555999695</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.83125273467333394</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.8827345960909202</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.93528165011429298</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.98871218150095486</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0428277068887588</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.097413865681877</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.1522415453292543</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.20706823812356</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.2616396227334576</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.3156913596880992</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3689510860393783</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.4211405905178409</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.4719781467574591</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5211809786778678</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.568467828963104</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.6135615988418455</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6561920251276123</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.6960983587816427</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7330320081689699</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7667591097301629</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7970629890142533</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.8237464759248203</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.8466340396181415</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.8655737107410497</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.8804387615726716</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.8911291180896206</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.8975724819456334</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.8997251447687271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-88C3-419D-A7BA-919C0CB827E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2091331152"/>
+        <c:axId val="2091322416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2091331152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2091322416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2091322416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2091331152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,10 +3137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H102"/>
+  <dimension ref="A2:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -372,1340 +3148,1751 @@
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <f>_xlfn.NORM.DIST($A2,G$2,G$3,FALSE)</f>
-        <v>4.5263387052613352E-5</v>
+        <v>1.8997251447687271</v>
       </c>
       <c r="C2">
         <f>_xlfn.NORM.DIST($A2,H$2,H$3,FALSE)</f>
-        <v>8.7641502467842705E-2</v>
+        <v>0.11160851807381066</v>
+      </c>
+      <c r="D2">
+        <f>_xlfn.NORM.DIST($A2,I$2,I$3,FALSE)</f>
+        <v>2.2631693526306676E-5</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.01</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="0">_xlfn.NORM.DIST($A3,G$2,G$3,FALSE)</f>
-        <v>7.091472257742848E-5</v>
+        <v>1.8975724819456334</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="1">_xlfn.NORM.DIST($A3,H$2,H$3,FALSE)</f>
-        <v>9.9186771958976683E-2</v>
+        <v>0.12486613854147374</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="2">_xlfn.NORM.DIST($A3,I$2,I$3,FALSE)</f>
+        <v>2.8359863117987185E-5</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.105</v>
+        <v>0.21</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0.21</v>
+      </c>
+      <c r="I3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.02</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>1.1009981481403079E-4</v>
+        <v>1.8911291180896206</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0.11197265147421449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0.13938217156743224</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>3.545736128871424E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.03</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1.6939383086876357E-4</v>
+        <v>1.8804387615726716</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0.12609109957597206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0.15523333105600143</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>4.4230708907724652E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.04</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>2.5826729390245919E-4</v>
+        <v>1.8655737107410497</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0.14163518870800593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0.17249556457300708</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>5.5049907407015393E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.05</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>3.9021328888038889E-4</v>
+        <v>1.8466340396181415</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>0.15869825917833708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0.19124324019477679</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>6.8360383563704266E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.06</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>5.8424569332877932E-4</v>
+        <v>1.8237464759248199</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>0.17737296423115728</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0.21154826085620138</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>8.4696915434381785E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>8.6686167984884543E-4</v>
+        <v>1.7970629890142533</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0.19775020794685108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0.23347911082121831</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>1.0469981218597746E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.08</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>1.2745735787131941E-3</v>
+        <v>1.7667591097301629</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>0.21991797990213616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0.25709984053899076</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>1.2913364695122959E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.09</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>1.8571237282166983E-3</v>
+        <v>1.7330320081689699</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>0.2439600928959138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0.28246899784764445</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>1.5890886855065862E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0.1</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>2.6814986793530881E-3</v>
+        <v>1.6960983587816427</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>0.26995483256594027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0.30963851521458691</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>1.9510664444019444E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0.11</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>3.8368529676871561E-3</v>
+        <v>1.6561920251276123</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>0.29797353034408036</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0.33865256442425462</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>2.39007312916766E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0.12</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>5.4404340165255874E-3</v>
+        <v>1.6135615988418455</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>0.32807907387338298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0.36954639180327642</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>2.9212284666438966E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0.13</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>7.6445646692132729E-3</v>
+        <v>1.568467828963104</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>0.36032437168109011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0.40234514866943977</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>3.5623375123100976E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0.14000000000000001</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>1.0644684442684228E-2</v>
+        <v>1.5211809786778678</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>0.3947507915044709</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.43706273316241934</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>4.3343083992442271E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0.15</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1.4688371393248648E-2</v>
+        <v>1.4719781467574593</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>0.43138659413255781</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.47370066091785101</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>5.2616233968451082E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>0.16</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>2.0085161108523018E-2</v>
+        <v>1.4211405905178409</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>0.47024538688443479</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.51224698313875727</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>6.3728678935659705E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>0.17</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>2.7216847213096335E-2</v>
+        <v>1.3689510860393781</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>0.51132462281989033</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.55267527145741313</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>7.7013219093532916E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>0.18</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>3.654779093728424E-2</v>
+        <v>1.3156913596880988</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>0.55460417339727797</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.59494368952653265</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>9.2856186410834917E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>0.19</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>4.8634591189999896E-2</v>
+        <v>1.2616396227334574</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>0.60004500348492817</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.63899417149470894</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>1.1170474330169352E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>0.2</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>6.4134280716478517E-2</v>
+        <v>1.2070682381235598</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>0.64758797832945891</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.68475172737556311</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>1.3407493396765441E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>0.21</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>8.3810032315060609E-2</v>
+        <v>1.1522415453292543</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>0.69715283222680113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.7321238947872486</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>1.6056052290001992E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>0.22</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>0.10853320022664222</v>
+        <v>1.097413865681877</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>0.74863732817872419</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.7810003555999695</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>1.918426483843578E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>0.23</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>0.13928040811363818</v>
+        <v>1.0428277068887586</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>0.8019166367095979</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.83125273467333394</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>2.2870031029562847E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>0.24</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>0.17712435161794748</v>
+        <v>0.98871218150095486</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>0.85684296023903672</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.8827345960909202</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>2.7202170082627937E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>0.25</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>0.22321703614762131</v>
+        <v>0.93528165011429298</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>0.91324542694510946</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.93528165011429298</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>3.2281637387270323E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>0.26</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0.27876434313486448</v>
+        <v>0.8827345960909202</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>0.97093027491606487</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.98871218150095486</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>3.8222823346066364E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>0.27</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0.34499112914601443</v>
+        <v>0.83125273467333394</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>1.0296813435998737</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.0428277068887588</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>4.5154930368999577E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>0.28000000000000003</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>0.42309652171240308</v>
+        <v>0.7810003555999695</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>1.0892608851627528</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.097413865681877</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>5.3223422213421138E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>0.28999999999999998</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>0.51419968107798097</v>
+        <v>0.73212389478724882</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>1.1494107034211651</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.152241545329254</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>6.2591537540093011E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>0.3</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>0.61927703042917381</v>
+        <v>0.68475172737556311</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>1.2098536225957168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.2070682381235598</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>7.3441856966243238E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>0.31</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>0.73909278360655284</v>
+        <v>0.63899417149470894</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>1.2702952823459452</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.2616396227334574</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>8.5977910048888554E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>0.32</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>0.87412546632483867</v>
+        <v>0.59494368952653265</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>1.3304262494937742</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.3156913596880988</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>1.0042580554261509E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>0.33</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>1.0244939662775145</v>
+        <v>0.55267527145741291</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>1.3899244306549823</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.3689510860393781</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>1.1703586497102979E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>0.34</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>1.1898873790530657</v>
+        <v>0.51224698313875705</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>1.4484577638074139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.4211405905178411</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>1.3608423606548167E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>0.35000000000000003</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>1.3695034547511267</v>
+        <v>0.47370066091785079</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>1.5056871607740223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.4719781467574593</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>1.5787445900418341E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>0.36</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>1.562000711199939</v>
+        <v>0.43706273316241934</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>1.5612696668338062</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.5211809786778678</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>1.827389546864212E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>0.37</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>1.7654691921818404</v>
+        <v>0.40234514866943977</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>1.6148617983395714</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.568467828963104</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>2.1104040056847656E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>0.38</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>1.9774243630019097</v>
+        <v>0.36954639180327642</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>1.6661230144589982</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.6135615988418455</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>2.4317295594999948E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>0.39</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>2.1948277313637541</v>
+        <v>0.33865256442425462</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>1.7147192750969193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.6561920251276123</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>2.7956329512303851E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>0.4</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>2.41413647624712</v>
+        <v>0.30963851521458691</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>1.7603266338214976</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.6960983587816427</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>3.2067140358239259E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>0.41000000000000003</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>2.6313827193761985</v>
+        <v>0.28246899784764445</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>1.8026348123082399</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.7330320081689699</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>3.6699108965682237E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>0.42</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>2.8422811810356818</v>
+        <v>0.25709984053899076</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>1.8413507015166166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.7667591097301627</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>4.1905016157530305E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>0.43</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>3.0423619573557357</v>
+        <v>0.23347911082121831</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>1.8762017345846895</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.7970629890142533</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>4.7741021825659265E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>0.44</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>3.2271231976836909</v>
+        <v>0.21154826085620138</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>1.9069390773026207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.8237464759248199</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>5.4266600113321108E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>0.45</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>3.3921967175632854</v>
+        <v>0.19124324019477679</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>1.9333405840142464</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.8466340396181415</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>6.1544425422277664E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>0.46</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>3.5335182194603258</v>
+        <v>0.17249556457300708</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>1.9552134698772794</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.8655737107410497</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>6.9640204056819088E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>0.47000000000000003</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>3.6474929518496406</v>
+        <v>0.15523333105600143</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>1.9723966545394445</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.8804387615726716</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>7.8622446520490788E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>0.48</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>3.7311474214820994</v>
+        <v>0.13938217156743224</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>1.9847627373850589</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.8911291180896206</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>8.8562175808973742E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>0.49</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>3.7822582361792412</v>
+        <v>0.12486613854147374</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>1.9922195704738201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.8975724819456334</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>9.9532567503762701E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>0.5</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>3.7994502895374542</v>
+        <v>0.11160851807381066</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>1.9947114020071635</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.8997251447687271</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>0.11160851807381066</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>0.51</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>3.7822582361792412</v>
+        <v>9.9532567503762701E-2</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>1.9922195704738201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.8975724819456334</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>0.12486613854147374</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>0.52</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>3.7311474214820994</v>
+        <v>8.8562175808973742E-2</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>1.9847627373850589</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.8911291180896206</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>0.13938217156743224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>0.53</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>3.6474929518496397</v>
+        <v>7.8622446520490788E-2</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>1.9723966545394445</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.8804387615726716</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>0.15523333105600143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>0.54</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>3.5335182194603254</v>
+        <v>6.9640204056819088E-2</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>1.9552134698772794</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.8655737107410497</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>0.17249556457300722</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>0.55000000000000004</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>3.3921967175632854</v>
+        <v>6.1544425422277664E-2</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>1.9333405840142459</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.8466340396181411</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>0.19124324019477679</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>0.56000000000000005</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>3.2271231976836905</v>
+        <v>5.4266600113321108E-2</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>1.9069390773026202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.8237464759248199</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>0.21154826085620154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>0.57000000000000006</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>3.0423619573557343</v>
+        <v>4.7741021825659265E-2</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>1.8762017345846891</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.7970629890142533</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>0.23347911082121831</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>0.57999999999999996</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>2.8422811810356827</v>
+        <v>4.1905016157530332E-2</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>1.8413507015166166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.7667591097301629</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>0.25709984053899049</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>0.59</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>2.6313827193761985</v>
+        <v>3.6699108965682237E-2</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>1.8026348123082399</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.7330320081689699</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>0.28246899784764445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>0.6</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>2.41413647624712</v>
+        <v>3.2067140358239259E-2</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>1.7603266338214976</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.6960983587816427</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>0.30963851521458691</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>0.61</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>2.1948277313637541</v>
+        <v>2.7956329512303851E-2</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>1.7147192750969193</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.6561920251276123</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>0.33865256442425462</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>0.62</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>1.9774243630019097</v>
+        <v>2.4317295594999948E-2</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
-        <v>1.6661230144589982</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.6135615988418455</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>0.36954639180327642</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>0.63</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>1.7654691921818404</v>
+        <v>2.1104040056847656E-2</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
-        <v>1.6148617983395714</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.568467828963104</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>0.40234514866943977</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>0.64</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>1.562000711199939</v>
+        <v>1.827389546864212E-2</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
-        <v>1.5612696668338062</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.5211809786778678</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>0.43706273316241934</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>0.65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B102" si="2">_xlfn.NORM.DIST($A67,G$2,G$3,FALSE)</f>
-        <v>1.3695034547511256</v>
+        <f t="shared" ref="B67:B102" si="3">_xlfn.NORM.DIST($A67,G$2,G$3,FALSE)</f>
+        <v>1.5787445900418313E-2</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C102" si="3">_xlfn.NORM.DIST($A67,H$2,H$3,FALSE)</f>
-        <v>1.5056871607740219</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ref="C67:C102" si="4">_xlfn.NORM.DIST($A67,H$2,H$3,FALSE)</f>
+        <v>1.4719781467574591</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D102" si="5">_xlfn.NORM.DIST($A67,I$2,I$3,FALSE)</f>
+        <v>0.47370066091785101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>0.66</v>
       </c>
       <c r="B68">
-        <f t="shared" si="2"/>
-        <v>1.1898873790530649</v>
+        <f t="shared" si="3"/>
+        <v>1.3608423606548141E-2</v>
       </c>
       <c r="C68">
-        <f t="shared" si="3"/>
-        <v>1.4484577638074136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>1.4211405905178409</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="5"/>
+        <v>0.51224698313875727</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>0.67</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
-        <v>1.0244939662775139</v>
+        <f t="shared" si="3"/>
+        <v>1.1703586497102958E-2</v>
       </c>
       <c r="C69">
-        <f t="shared" si="3"/>
-        <v>1.3899244306549823</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>1.3689510860393777</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="5"/>
+        <v>0.55267527145741313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>0.68</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
-        <v>0.87412546632483756</v>
+        <f t="shared" si="3"/>
+        <v>1.004258055426149E-2</v>
       </c>
       <c r="C70">
-        <f t="shared" si="3"/>
-        <v>1.330426249493774</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>1.3156913596880986</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="5"/>
+        <v>0.59494368952653287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>0.69000000000000006</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
-        <v>0.73909278360655206</v>
+        <f t="shared" si="3"/>
+        <v>8.5977910048888415E-3</v>
       </c>
       <c r="C71">
-        <f t="shared" si="3"/>
-        <v>1.2702952823459446</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>1.261639622733457</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="5"/>
+        <v>0.63899417149470905</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>0.70000000000000007</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
-        <v>0.61927703042917315</v>
+        <f t="shared" si="3"/>
+        <v>7.3441856966243047E-3</v>
       </c>
       <c r="C72">
-        <f t="shared" si="3"/>
-        <v>1.2098536225957166</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>1.2070682381235593</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="5"/>
+        <v>0.68475172737556333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>0.71</v>
       </c>
       <c r="B73">
-        <f t="shared" si="2"/>
-        <v>0.51419968107798175</v>
+        <f t="shared" si="3"/>
+        <v>6.2591537540093011E-3</v>
       </c>
       <c r="C73">
-        <f t="shared" si="3"/>
-        <v>1.1494107034211654</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>1.1522415453292543</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="5"/>
+        <v>0.7321238947872486</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>0.72</v>
       </c>
       <c r="B74">
-        <f t="shared" si="2"/>
-        <v>0.42309652171240308</v>
+        <f t="shared" si="3"/>
+        <v>5.3223422213421138E-3</v>
       </c>
       <c r="C74">
-        <f t="shared" si="3"/>
-        <v>1.0892608851627528</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>1.097413865681877</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="5"/>
+        <v>0.7810003555999695</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>0.73</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
-        <v>0.34499112914601443</v>
+        <f t="shared" si="3"/>
+        <v>4.5154930368999577E-3</v>
       </c>
       <c r="C75">
-        <f t="shared" si="3"/>
-        <v>1.0296813435998737</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>1.0428277068887588</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="5"/>
+        <v>0.83125273467333394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>0.74</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
-        <v>0.27876434313486448</v>
+        <f t="shared" si="3"/>
+        <v>3.8222823346066364E-3</v>
       </c>
       <c r="C76">
-        <f t="shared" si="3"/>
-        <v>0.97093027491606487</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.98871218150095486</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="5"/>
+        <v>0.8827345960909202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>0.75</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
-        <v>0.22321703614762131</v>
+        <f t="shared" si="3"/>
+        <v>3.2281637387270323E-3</v>
       </c>
       <c r="C77">
-        <f t="shared" si="3"/>
-        <v>0.91324542694510946</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.93528165011429298</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="5"/>
+        <v>0.93528165011429298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>0.76</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
-        <v>0.17712435161794748</v>
+        <f t="shared" si="3"/>
+        <v>2.7202170082627937E-3</v>
       </c>
       <c r="C78">
-        <f t="shared" si="3"/>
-        <v>0.85684296023903672</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.8827345960909202</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="5"/>
+        <v>0.98871218150095486</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>0.77</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
-        <v>0.13928040811363818</v>
+        <f t="shared" si="3"/>
+        <v>2.2870031029562847E-3</v>
       </c>
       <c r="C79">
-        <f t="shared" si="3"/>
-        <v>0.8019166367095979</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.83125273467333394</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="5"/>
+        <v>1.0428277068887588</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>0.78</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
-        <v>0.10853320022664222</v>
+        <f t="shared" si="3"/>
+        <v>1.918426483843578E-3</v>
       </c>
       <c r="C80">
-        <f t="shared" si="3"/>
-        <v>0.74863732817872419</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.7810003555999695</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="5"/>
+        <v>1.097413865681877</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>0.79</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
-        <v>8.3810032315060609E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.6056052290001992E-3</v>
       </c>
       <c r="C81">
-        <f t="shared" si="3"/>
-        <v>0.69715283222680113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.7321238947872486</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="5"/>
+        <v>1.1522415453292543</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>0.8</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
-        <v>6.4134280716478406E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.3407493396765441E-3</v>
       </c>
       <c r="C82">
-        <f t="shared" si="3"/>
-        <v>0.64758797832945836</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.68475172737556278</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="5"/>
+        <v>1.20706823812356</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>0.81</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
-        <v>4.8634591189999805E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.1170474330169352E-3</v>
       </c>
       <c r="C83">
-        <f t="shared" si="3"/>
-        <v>0.60004500348492773</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.63899417149470861</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="5"/>
+        <v>1.2616396227334576</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>0.82000000000000006</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
-        <v>3.6547790937284205E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.2856186410834917E-4</v>
       </c>
       <c r="C84">
-        <f t="shared" si="3"/>
-        <v>0.55460417339727763</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.59494368952653243</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="5"/>
+        <v>1.3156913596880992</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>0.83000000000000007</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
-        <v>2.7216847213096262E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.7013219093532775E-4</v>
       </c>
       <c r="C85">
-        <f t="shared" si="3"/>
-        <v>0.51132462281988977</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.5526752714574128</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="5"/>
+        <v>1.3689510860393783</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>0.84</v>
       </c>
       <c r="B86">
-        <f t="shared" si="2"/>
-        <v>2.0085161108523018E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.3728678935659705E-4</v>
       </c>
       <c r="C86">
-        <f t="shared" si="3"/>
-        <v>0.47024538688443479</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.51224698313875727</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="5"/>
+        <v>1.4211405905178409</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>0.85</v>
       </c>
       <c r="B87">
-        <f t="shared" si="2"/>
-        <v>1.4688371393248648E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.2616233968451082E-4</v>
       </c>
       <c r="C87">
-        <f t="shared" si="3"/>
-        <v>0.43138659413255781</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.47370066091785101</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="5"/>
+        <v>1.4719781467574591</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>0.86</v>
       </c>
       <c r="B88">
-        <f t="shared" si="2"/>
-        <v>1.0644684442684228E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.3343083992442271E-4</v>
       </c>
       <c r="C88">
-        <f t="shared" si="3"/>
-        <v>0.3947507915044709</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.43706273316241934</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="5"/>
+        <v>1.5211809786778678</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>0.87</v>
       </c>
       <c r="B89">
-        <f t="shared" si="2"/>
-        <v>7.6445646692132729E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.5623375123100976E-4</v>
       </c>
       <c r="C89">
-        <f t="shared" si="3"/>
-        <v>0.36032437168109011</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.40234514866943977</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="5"/>
+        <v>1.568467828963104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>0.88</v>
       </c>
       <c r="B90">
-        <f t="shared" si="2"/>
-        <v>5.4404340165255874E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.9212284666438966E-4</v>
       </c>
       <c r="C90">
-        <f t="shared" si="3"/>
-        <v>0.32807907387338298</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.36954639180327642</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="5"/>
+        <v>1.6135615988418455</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>0.89</v>
       </c>
       <c r="B91">
-        <f t="shared" si="2"/>
-        <v>3.8368529676871561E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.39007312916766E-4</v>
       </c>
       <c r="C91">
-        <f t="shared" si="3"/>
-        <v>0.29797353034408036</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.33865256442425462</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="5"/>
+        <v>1.6561920251276123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>0.9</v>
       </c>
       <c r="B92">
-        <f t="shared" si="2"/>
-        <v>2.6814986793530881E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.9510664444019444E-4</v>
       </c>
       <c r="C92">
-        <f t="shared" si="3"/>
-        <v>0.26995483256594027</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.30963851521458691</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="5"/>
+        <v>1.6960983587816427</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>0.91</v>
       </c>
       <c r="B93">
-        <f t="shared" si="2"/>
-        <v>1.8571237282166983E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.5890886855065862E-4</v>
       </c>
       <c r="C93">
-        <f t="shared" si="3"/>
-        <v>0.2439600928959138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.28246899784764445</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="5"/>
+        <v>1.7330320081689699</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>0.92</v>
       </c>
       <c r="B94">
-        <f t="shared" si="2"/>
-        <v>1.2745735787131893E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.2913364695122959E-4</v>
       </c>
       <c r="C94">
-        <f t="shared" si="3"/>
-        <v>0.21991797990213593</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.25709984053899049</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="5"/>
+        <v>1.7667591097301629</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>0.93</v>
       </c>
       <c r="B95">
-        <f t="shared" si="2"/>
-        <v>8.6686167984884239E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.0469981218597746E-4</v>
       </c>
       <c r="C95">
-        <f t="shared" si="3"/>
-        <v>0.19775020794685108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.23347911082121808</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="5"/>
+        <v>1.7970629890142533</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>0.94000000000000006</v>
       </c>
       <c r="B96">
-        <f t="shared" si="2"/>
-        <v>5.8424569332877726E-4</v>
+        <f t="shared" si="3"/>
+        <v>8.4696915434381785E-5</v>
       </c>
       <c r="C96">
-        <f t="shared" si="3"/>
-        <v>0.17737296423115712</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.21154826085620115</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="5"/>
+        <v>1.8237464759248203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>0.95000000000000007</v>
       </c>
       <c r="B97">
-        <f t="shared" si="2"/>
-        <v>3.9021328888038748E-4</v>
+        <f t="shared" si="3"/>
+        <v>6.8360383563704022E-5</v>
       </c>
       <c r="C97">
-        <f t="shared" si="3"/>
-        <v>0.15869825917833708</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.19124324019477662</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="5"/>
+        <v>1.8466340396181415</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>0.96</v>
       </c>
       <c r="B98">
-        <f t="shared" si="2"/>
-        <v>2.5826729390246011E-4</v>
+        <f t="shared" si="3"/>
+        <v>5.5049907407015393E-5</v>
       </c>
       <c r="C98">
-        <f t="shared" si="3"/>
-        <v>0.14163518870800593</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.17249556457300722</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="5"/>
+        <v>1.8655737107410497</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>0.97</v>
       </c>
       <c r="B99">
-        <f t="shared" si="2"/>
-        <v>1.6939383086876357E-4</v>
+        <f t="shared" si="3"/>
+        <v>4.4230708907724652E-5</v>
       </c>
       <c r="C99">
-        <f t="shared" si="3"/>
-        <v>0.12609109957597206</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.15523333105600143</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="5"/>
+        <v>1.8804387615726716</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>0.98</v>
       </c>
       <c r="B100">
-        <f t="shared" si="2"/>
-        <v>1.1009981481403079E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.545736128871424E-5</v>
       </c>
       <c r="C100">
-        <f t="shared" si="3"/>
-        <v>0.11197265147421449</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.13938217156743224</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="5"/>
+        <v>1.8911291180896206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>0.99</v>
       </c>
       <c r="B101">
-        <f t="shared" si="2"/>
-        <v>7.091472257742848E-5</v>
+        <f t="shared" si="3"/>
+        <v>2.8359863117987185E-5</v>
       </c>
       <c r="C101">
-        <f t="shared" si="3"/>
-        <v>9.9186771958976683E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>0.12486613854147374</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="5"/>
+        <v>1.8975724819456334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>1</v>
       </c>
       <c r="B102">
-        <f t="shared" si="2"/>
-        <v>4.5263387052613352E-5</v>
+        <f t="shared" si="3"/>
+        <v>2.2631693526306676E-5</v>
       </c>
       <c r="C102">
-        <f t="shared" si="3"/>
-        <v>8.7641502467842705E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.11160851807381066</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="5"/>
+        <v>1.8997251447687271</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>